--- a/biology/Zoologie/Grive_de_Ward/Grive_de_Ward.xlsx
+++ b/biology/Zoologie/Grive_de_Ward/Grive_de_Ward.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geokichla wardii
 La Grive de Ward (Geokichla wardii) est une espèce de passereaux de la famille des Turdidae. Son nom vernaculaire est un hommage à S. N. Ward (1813-1897), un administrateur colonial britannique en Inde de 1832 à 1863.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce mesure 18 à 20 cm pour une masse de 52 à 72 g.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grive de Ward niche dans le nord de l'Inde (Himalaya) et au Népal. Observée en migration dans le sud de l'Inde, elle hiverne probablement exclusivement au Sri Lanka.
 </t>
@@ -574,7 +590,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se reproduit de mai à juillet. Le nid est une coupe compacte constituée de mousses et de feuilles mortes.
 </t>
@@ -605,7 +623,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Christie D. (2005) Handbook of the Birds of the World, Volume 10, Cuckoo-shrikes to Thrushes. BirdLife International, Lynx Edicions, Barcelona, 895 p.</t>
         </is>
